--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,34 @@
       </c>
       <c r="F2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10/09/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AUSTON MATTHEWS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,126 @@
       </c>
       <c r="F3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DAVID PASTRNAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ELIAS LINDHOLM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ALEKSANDER BARKOV</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CARTER VERHAEGHE</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SAM REINHART</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TIM STÜTZLE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BRADY TKACHUK</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SEAN MONAHAN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KIRILL MARCHENKO</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>JOHNNY GAUDREAU</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,6 +641,38 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PAVEL ZACHA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ELIAS LINDHOLM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>DAVID PASTRNAK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,6 +673,34 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10/09/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AUSTON MATTHEWS</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,6 +701,126 @@
       </c>
       <c r="F9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ELIAS LINDHOLM</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>PAVEL ZACHA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>DAVID PASTRNAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALEKSANDER BARKOV</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CARTER VERHAEGHE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>SAM REINHART</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TIM STÜTZLE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BRADY TKACHUK</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SEAN MONAHAN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>YEGOR CHINAKHOV</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,6 +821,90 @@
       </c>
       <c r="F13" t="inlineStr"/>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10/12/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BRADY TKACHUK</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TIM STÜTZLE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10/12/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>COLE CAUFIELD</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NICK SUZUKI</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10/12/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MACKLIN CELEBRINI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TYLER TOFFOLI</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -905,6 +905,66 @@
       </c>
       <c r="F16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10/13/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MARK SCHEIFELE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KYLE CONNOR</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>GABRIEL VILARDI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10/13/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>JACK EICHEL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MARK STONE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,6 +965,98 @@
       </c>
       <c r="F18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>10/14/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ELIAS LINDHOLM</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>PAVEL ZACHA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>DAVID PASTRNAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>10/14/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ANZE KOPITAR</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ADRIAN KEMPE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ALEX LAFERRIERE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>10/14/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BRYAN RUST</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SIDNEY CROSBY</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,6 +1057,62 @@
       </c>
       <c r="F21" t="inlineStr"/>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10/15/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SEAN MONAHAN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>YEGOR CHINAKHOV</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10/15/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>JAKE NEIGHBOURS</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ROBERT THOMAS</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,6 +1113,98 @@
       </c>
       <c r="F23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10/17/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ANZE KOPITAR</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ADRIAN KEMPE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>ALEX LAFERRIERE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10/17/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TIMO MEIER</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>JESPER BRATT</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>JACK HUGHES</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>10/17/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>J.T. MILLER</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BROCK BOESER</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,6 +1205,38 @@
       </c>
       <c r="F26" t="inlineStr"/>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10/18/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ROSS COLTON</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MIKKO RANTANEN</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NATHAN MACKINNON</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,6 +1237,126 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10/19/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>JAKE GUENTZEL</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>BRAYDEN POINT</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NIKITA KUCHEROV</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10/19/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MARK STONE</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>JACK EICHEL</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10/19/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MATHEW BARZAL</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ANTHONY DUCLAIR</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BO HORVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10/19/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SEAN MONAHAN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>YEGOR CHINAKHOV</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,6 +1357,34 @@
       </c>
       <c r="F31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10/20/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ADRIAN KEMPE</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ANZE KOPITAR</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,6 +1385,66 @@
       </c>
       <c r="F32" t="inlineStr"/>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10/24/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>JAKE GUENTZEL</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>BRAYDEN POINT</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NIKITA KUCHEROV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>10/24/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VINCENT TROCHECK</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ARTEMI PANARIN</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1445,6 +1445,34 @@
       </c>
       <c r="F34" t="inlineStr"/>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>10/25/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MARK STONE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>JACK EICHEL</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1473,6 +1473,62 @@
       </c>
       <c r="F35" t="inlineStr"/>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>10/26/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>JAKE NEIGHBOURS</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>BRAYDEN SCHENN</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10/26/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VINCENT TROCHECK</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ARTEMI PANARIN</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1529,6 +1529,66 @@
       </c>
       <c r="F37" t="inlineStr"/>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10/27/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>MATVEI MICHKOV</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TRAVIS KONECNY</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10/27/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ROSS COLTON</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MIKKO RANTANEN</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NATHAN MACKINNON</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1589,6 +1589,34 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>10/28/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>TAGE THOMPSON</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>JJ PETERKA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1617,6 +1617,94 @@
       </c>
       <c r="F40" t="inlineStr"/>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10/29/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>JARED MCCANN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>JORDAN EBERLE</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>MATTY BENIERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10/29/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>JAKE NEIGHBOURS</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>BRAYDEN SCHENN</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10/29/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>MATHEW BARZAL</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BO HORVAT</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,6 +1705,66 @@
       </c>
       <c r="F43" t="inlineStr"/>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>10/31/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>RICKARD RAKELL</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SIDNEY CROSBY</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>EVGENI MALKIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10/31/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ALEX OVECHKIN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>DYLAN STROME</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1765,6 +1765,94 @@
       </c>
       <c r="F45" t="inlineStr"/>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>11/01/2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ARTEMI PANARIN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>VINCENT TROCHECK</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>11/01/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>BRAYDEN POINT</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>JAKE GUENTZEL</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NIKITA KUCHEROV</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>11/01/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ROOPE HINTZ</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>JAMIE BENN</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1853,6 +1853,98 @@
       </c>
       <c r="F48" t="inlineStr"/>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>11/02/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ROOPE HINTZ</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>JAMIE BENN</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>11/02/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>JARED MCCANN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MATTY BENIERS</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>JORDAN EBERLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>11/02/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>EVGENI MALKIN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SIDNEY CROSBY</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>RICKARD RAKELL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1945,6 +1945,38 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>11/03/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>AUSTON MATTHEWS</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>MATTHEW KNIES</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1977,6 +1977,34 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>11/08/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>KIRILL KAPRIZOV</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MATS ZUCCARELLO</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2005,6 +2005,66 @@
       </c>
       <c r="F53" t="inlineStr"/>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CONNOR BEDARD</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>LUKAS REICHEL</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>KIRILL MARCHENKO</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>YEGOR CHINAKHOV</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>SEAN MONAHAN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2065,6 +2065,34 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>TAGE THOMPSON</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>JJ PETERKA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2093,6 +2093,34 @@
       </c>
       <c r="F56" t="inlineStr"/>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>11/12/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>MATTHEW KNIES</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,6 +2121,38 @@
       </c>
       <c r="F57" t="inlineStr"/>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>11/15/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ALEX DEBRINCAT</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>DYLAN LARKIN</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>LUCAS RAYMOND</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2153,6 +2153,102 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ZACH HYMAN</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>CONNOR MCDAVID</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>RYAN NUGENT-HOPKINS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>JORDAN KYROU</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>JAKE NEIGHBOURS</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>PAVEL BUCHNEVICH</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>11/19/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>KYLE CONNOR</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MARK SCHEIFELE</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>GABRIEL VILARDI</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2249,6 +2249,34 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>11/22/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ALEX TUCH</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>JJ PETERKA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2277,6 +2277,94 @@
       </c>
       <c r="F62" t="inlineStr"/>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>11/25/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DYLAN STROME</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>TOM WILSON</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>11/25/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CONNOR ZARY</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>JONATHAN HUBERDEAU</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>11/25/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>MARK SCHEIFELE</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>KYLE CONNOR</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>GABRIEL VILARDI</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2365,6 +2365,122 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>TAGE THOMPSON</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>JJ PETERKA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>JOHN TAVARES</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>KIRILL MARCHENKO</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>DMITRI VORONKOV</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>SEAN MONAHAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>11/27/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MACKLIN CELEBRINI</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>WILLIAM EKLUND</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2481,6 +2481,122 @@
       </c>
       <c r="F69" t="inlineStr"/>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>VINCENT TROCHECK</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ARTEMI PANARIN</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ALEXIS LAFRENIÈRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SEBASTIAN AHO</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SETH JARVIS</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ANZE KOPITAR</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ADRIAN KEMPE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>11/30/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>RYAN O'REILLY</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>FILIP FORSBERG</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,6 +2597,98 @@
       </c>
       <c r="F73" t="inlineStr"/>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>BO HORVAT</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ANDERS LEE</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>SIDNEY CROSBY</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>RICKARD RAKELL</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>BRYAN RUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ELIAS PETTERSSON</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>JAKE DEBRUSK</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>BROCK BOESER</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2689,6 +2689,34 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>12/13/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SEBASTIAN AHO</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ANDREI SVECHNIKOV</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2717,6 +2717,34 @@
       </c>
       <c r="F77" t="inlineStr"/>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>12/15/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>JACK EICHEL</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MARK STONE</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2745,6 +2745,38 @@
       </c>
       <c r="F78" t="inlineStr"/>
     </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>12/16/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CONNOR MCDAVID</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>ZACH HYMAN</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>RYAN NUGENT-HOPKINS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2777,6 +2777,66 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>DYLAN LARKIN</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>LUCAS RAYMOND</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>12/21/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>MARK SCHEIFELE</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>KYLE CONNOR</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>GABRIEL VILARDI</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2837,6 +2837,34 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>12/27/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>JASON ROBERTSON</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>ROOPE HINTZ</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2865,6 +2865,98 @@
       </c>
       <c r="F82" t="inlineStr"/>
     </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>12/31/2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>VICTOR OLOFSSON</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MARK STONE</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>JACK EICHEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>12/31/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>FILIP FORSBERG</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>STEVEN STAMKOS</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>JONATHAN MARCHESSAULT</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>12/31/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NICO HISCHIER</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>STEFAN NOESEN</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2957,6 +2957,122 @@
       </c>
       <c r="F85" t="inlineStr"/>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SIDNEY CROSBY</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>RICKARD RAKELL</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>BRYAN RUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>TYLER BERTUZZI</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>CONNOR BEDARD</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>PAVEL BUCHNEVICH</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ROBERT THOMAS</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>01/03/2025</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CONNOR MCDAVID</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>RYAN NUGENT-HOPKINS</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3073,6 +3073,66 @@
       </c>
       <c r="F89" t="inlineStr"/>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SEBASTIAN AHO</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>SETH JARVIS</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>JONATHAN DROUIN</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MIKKO RANTANEN</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NATHAN MACKINNON</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,6 +3133,38 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>BRAYDEN POINT</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>NIKITA KUCHEROV</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>JAKE GUENTZEL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3165,6 +3165,70 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>BROCK BOESER</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>J.T. MILLER</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>JAKE DEBRUSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>MIKKO RANTANEN</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>JONATHAN DROUIN</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NATHAN MACKINNON</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3229,6 +3229,66 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>DYLAN LARKIN</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>LUCAS RAYMOND</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>BRANDON SAAD</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>PAVEL BUCHNEVICH</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ROBERT THOMAS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3289,6 +3289,34 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>01/10/2025</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>ALEX OVECHKIN</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>DYLAN STROME</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3317,6 +3317,38 @@
       </c>
       <c r="F97" t="inlineStr"/>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>01/15/2025</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>RYAN NUGENT-HOPKINS</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>ZACH HYMAN</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>CONNOR MCDAVID</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,6 +3349,62 @@
         </is>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>01/19/2025</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>JACK HUGHES</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>JESPER BRATT</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>01/19/2025</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>VINCENT TROCHECK</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>ARTEMI PANARIN</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3405,6 +3405,34 @@
       </c>
       <c r="F100" t="inlineStr"/>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>01/20/2025</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>NATHAN MACKINNON</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>MIKKO RANTANEN</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3433,6 +3433,98 @@
       </c>
       <c r="F101" t="inlineStr"/>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>01/21/2025</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ARTEMI PANARIN</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>VINCENT TROCHECK</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>01/21/2025</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>MATTHEW TKACHUK</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>ALEKSANDER BARKOV</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>SAM REINHART</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>01/21/2025</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>TROY TERRY</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>RYAN STROME</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>FRANK VATRANO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3525,6 +3525,34 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>01/22/2025</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>ADRIAN KEMPE</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>ANZE KOPITAR</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3553,6 +3553,98 @@
       </c>
       <c r="F105" t="inlineStr"/>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>01/25/2025</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>BOBBY MCMANN</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>AUSTON MATTHEWS</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>01/25/2025</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>NAZEM KADRI</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>JONATHAN HUBERDEAU</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>01/25/2025</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>JONATHAN MARCHESSAULT</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>STEVEN STAMKOS</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>FILIP FORSBERG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3645,6 +3645,66 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>01/28/2025</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GABRIEL VILARDI</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>KYLE CONNOR</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>MARK SCHEIFELE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>01/28/2025</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>JADEN SCHWARTZ</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>MATTY BENIERS</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3705,6 +3705,98 @@
       </c>
       <c r="F110" t="inlineStr"/>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>CONNOR BEDARD</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>TYLER BERTUZZI</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>MATS ZUCCARELLO</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>JOEL ERIKSSON EK</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>MATT BOLDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>02/01/2025</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TIM STÜTZLE</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>CLAUDE GIROUX</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>BRADY TKACHUK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3797,6 +3797,102 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>02/02/2025</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>JURAJ SLAFKOVSKY</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>COLE CAUFIELD</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NICK SUZUKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>02/02/2025</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>FRANK VATRANO</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>RYAN STROME</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>TROY TERRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>02/02/2025</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>ANDERS LEE</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>MATHEW BARZAL</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>BO HORVAT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3893,6 +3893,34 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>02/03/2025</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>STEVEN STAMKOS</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>FILIP FORSBERG</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3921,6 +3921,34 @@
       </c>
       <c r="F117" t="inlineStr"/>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>02/05/2025</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>ANZE KOPITAR</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>ADRIAN KEMPE</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3949,6 +3949,98 @@
       </c>
       <c r="F118" t="inlineStr"/>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>BRAYDEN POINT</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>JAKE GUENTZEL</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NIKITA KUCHEROV</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>ROBERT THOMAS</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>PAVEL BUCHNEVICH</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>02/06/2025</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>JACKSON BLAKE</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>SEBASTIAN AHO</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>MIKKO RANTANEN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,6 +4041,158 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>02/08/2025</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>ONDREJ PALAT</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>JACK HUGHES</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>JESPER BRATT</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>02/08/2025</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>BRADY TKACHUK</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>CLAUDE GIROUX</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>02/08/2025</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>ALEKSANDER BARKOV</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>SAM REINHART</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>CARTER VERHAEGHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>02/08/2025</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>BO HORVAT</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>ANDERS LEE</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ANTHONY DUCLAIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>02/08/2025</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>ADRIAN KEMPE</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>ANZE KOPITAR</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4193,6 +4193,34 @@
       </c>
       <c r="F126" t="inlineStr"/>
     </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>02/09/2025</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>JAKE GUENTZEL</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>NIKITA KUCHEROV</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4221,6 +4221,158 @@
       </c>
       <c r="F127" t="inlineStr"/>
     </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>02/22/2025</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>LUCAS RAYMOND</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>DYLAN LARKIN</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>02/22/2025</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>KAAPO KAKKO</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>JADEN SCHWARTZ</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>MATTY BENIERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>02/22/2025</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>PAVEL ZACHA</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>DAVID PASTRNAK</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>02/22/2025</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>JURAJ SLAFKOVSKY</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>NICK SUZUKI</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>COLE CAUFIELD</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>02/22/2025</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CLAUDE GIROUX</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>TIM STÜTZLE</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>BRADY TKACHUK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4373,6 +4373,34 @@
         </is>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>02/23/2025</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>DYLAN LARKIN</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>LUCAS RAYMOND</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4401,6 +4401,126 @@
       </c>
       <c r="F133" t="inlineStr"/>
     </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>02/25/2025</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>TAGE THOMPSON</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>JJ PETERKA</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>02/25/2025</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>MIKKO RANTANEN</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>SEBASTIAN AHO</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>SETH JARVIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>02/25/2025</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>FILIP FORSBERG</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>JONATHAN MARCHESSAULT</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>RYAN O'REILLY</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>02/25/2025</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>LUCAS RAYMOND</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>DYLAN LARKIN</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4521,6 +4521,38 @@
       </c>
       <c r="F137" t="inlineStr"/>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>02/26/2025</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>MARK SCHEIFELE</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>KYLE CONNOR</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>GABRIEL VILARDI</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4553,6 +4553,38 @@
         </is>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>02/28/2025</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>MARTIN NECAS</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>NATHAN MACKINNON</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>ARTTURI LEHKONEN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4585,6 +4585,130 @@
         </is>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>03/01/2025</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>NAZEM KADRI</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>MATT CORONATO</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>JONATHAN HUBERDEAU</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>03/01/2025</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>ALEX TUCH</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>TAGE THOMPSON</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>03/01/2025</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>MACKLIN CELEBRINI</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>TYLER TOFFOLI</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>WILLIAM EKLUND</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>03/01/2025</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>RYAN DONATO</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>TYLER BERTUZZI</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>CONNOR BEDARD</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4709,6 +4709,34 @@
         </is>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>03/02/2025</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>MORGAN GEEKIE</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>DAVID PASTRNAK</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4737,6 +4737,94 @@
       </c>
       <c r="F144" t="inlineStr"/>
     </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>06:30 PM</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>DYLAN STROME</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>ALEX OVECHKIN</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>JJ PETERKA</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>TAGE THOMPSON</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>NIKITA KUCHEROV</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>BRAYDEN POINT</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>JAKE GUENTZEL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4825,6 +4825,70 @@
         </is>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>ZACH HYMAN</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>CONNOR MCDAVID</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>RYAN NUGENT-HOPKINS</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>03/04/2025</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>MATTY BENIERS</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>KAAPO KAKKO</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>JADEN SCHWARTZ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4889,6 +4889,34 @@
         </is>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>DAKOTA JOSHUA</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>BROCK BOESER</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4917,6 +4917,70 @@
       </c>
       <c r="F150" t="inlineStr"/>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>DMITRI VORONKOV</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>KIRILL MARCHENKO</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>ADAM FANTILLI</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>03/06/2025</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>CONNOR MCDAVID</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>ZACH HYMAN</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>RYAN NUGENT-HOPKINS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4981,6 +4981,34 @@
         </is>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>ROBERT THOMAS</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>PAVEL BUCHNEVICH</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5009,6 +5009,94 @@
       </c>
       <c r="F153" t="inlineStr"/>
     </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>03/08/2025</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>VINCENT TROCHECK</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>ARTEMI PANARIN</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>03/08/2025</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>JJ PETERKA</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>TAGE THOMPSON</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>03/08/2025</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>MATT CORONATO</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>NAZEM KADRI</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>JONATHAN HUBERDEAU</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5097,6 +5097,70 @@
         </is>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>03/09/2025</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>RICKARD RAKELL</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>BRYAN RUST</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>SIDNEY CROSBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>03/09/2025</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>KYLE PALMIERI</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>BO HORVAT</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>ANTHONY DUCLAIR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,6 +5161,34 @@
         </is>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>LUCAS RAYMOND</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>DYLAN LARKIN</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5189,6 +5189,66 @@
       </c>
       <c r="F159" t="inlineStr"/>
     </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>03/13/2025</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>MATTHEW KNIES</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>AUSTON MATTHEWS</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>03/13/2025</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>DAVID PASTRNAK</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>MORGAN GEEKIE</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5249,6 +5249,34 @@
       </c>
       <c r="F161" t="inlineStr"/>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>03/14/2025</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>STEVEN STAMKOS</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>RYAN O'REILLY</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5277,6 +5277,126 @@
       </c>
       <c r="F162" t="inlineStr"/>
     </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>03/15/2025</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>AUSTON MATTHEWS</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>MATTHEW KNIES</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>03/15/2025</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>SAM REINHART</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>ALEKSANDER BARKOV</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>03/15/2025</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>COLE CAUFIELD</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>NICK SUZUKI</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>JURAJ SLAFKOVSKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>03/15/2025</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>ROBERT THOMAS</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>PAVEL BUCHNEVICH</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5397,6 +5397,66 @@
       </c>
       <c r="F166" t="inlineStr"/>
     </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>03/16/2025</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>PAVEL BUCHNEVICH</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>ROBERT THOMAS</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>03/16/2025</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>ANTHONY DUCLAIR</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>KYLE PALMIERI</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>BO HORVAT</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5457,6 +5457,38 @@
         </is>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>03/17/2025</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>ANDREI KUZMENKO</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>ADRIAN KEMPE</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>ANZE KOPITAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5489,6 +5489,98 @@
         </is>
       </c>
     </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>03/18/2025</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>BRADY TKACHUK</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>TIM STÜTZLE</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>03/18/2025</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>JURAJ SLAFKOVSKY</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>NICK SUZUKI</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>COLE CAUFIELD</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>03/18/2025</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>JASON ROBERTSON</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>ROOPE HINTZ</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>MIKKO RANTANEN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5581,6 +5581,126 @@
         </is>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>03/20/2025</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>MARTIN NECAS</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>NATHAN MACKINNON</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>03/20/2025</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>KIRILL MARCHENKO</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>DMITRI VORONKOV</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>03/20/2025</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>KYLE PALMIERI</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>SIMON HOLMSTROM</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>BO HORVAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>03/20/2025</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>STEVEN STAMKOS</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>RYAN O'REILLY</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>FILIP FORSBERG</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5701,6 +5701,126 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>03/22/2025</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>TAGE THOMPSON</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>JJ PETERKA</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>ALEX TUCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>03/22/2025</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>ALEX OVECHKIN</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>PIERRE-LUC DUBOIS</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>03/22/2025</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>NATHAN MACKINNON</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>JONATHAN DROUIN</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>VALERI NICHUSHKIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>03/22/2025</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>TIMO MEIER</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>NICO HISCHIER</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5821,6 +5821,70 @@
       </c>
       <c r="F180" t="inlineStr"/>
     </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>03/23/2025</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>RICKARD RAKELL</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>SIDNEY CROSBY</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>BRYAN RUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>03/23/2025</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>SETH JARVIS</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>JACKSON BLAKE</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>SEBASTIAN AHO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5885,6 +5885,38 @@
         </is>
       </c>
     </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>03/24/2025</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>MIKKO RANTANEN</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>JASON ROBERTSON</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>ROOPE HINTZ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5917,6 +5917,90 @@
         </is>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>03/25/2025</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>TAGE THOMPSON</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>ALEX TUCH</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>03/25/2025</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>ZACK BOLDUC</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>ROBERT THOMAS</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>03/25/2025</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>MARK STONE</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>JACK EICHEL</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F186"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6001,6 +6001,90 @@
       </c>
       <c r="F186" t="inlineStr"/>
     </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>03/27/2025</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>DYLAN LARKIN</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>LUCAS RAYMOND</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>03/27/2025</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>TYSON FOERSTER</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>BOBBY BRINK</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>03/27/2025</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>ALEX OVECHKIN</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>DYLAN STROME</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6085,6 +6085,126 @@
       </c>
       <c r="F189" t="inlineStr"/>
     </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>03/30/2025</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>COLE CAUFIELD</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>NICK SUZUKI</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>JURAJ SLAFKOVSKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>03/30/2025</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>SAM REINHART</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>ALEKSANDER BARKOV</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>03/30/2025</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>SIDNEY CROSBY</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>BRYAN RUST</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>03/30/2025</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>MATTHEW KNIES</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>AUSTON MATTHEWS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6205,6 +6205,34 @@
         </is>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>03/31/2025</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>NICO HISCHIER</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>JESPER BRATT</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6233,6 +6233,94 @@
       </c>
       <c r="F194" t="inlineStr"/>
     </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>04/01/2025</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>ALEKSANDER BARKOV</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>SAM REINHART</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>04/01/2025</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>COLE CAUFIELD</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>JURAJ SLAFKOVSKY</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>NICK SUZUKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>04/01/2025</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>MACKLIN CELEBRINI</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>TYLER TOFFOLI</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6321,6 +6321,66 @@
       </c>
       <c r="F197" t="inlineStr"/>
     </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>04/02/2025</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>ARTEMI PANARIN</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>VINCENT TROCHECK</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>04/02/2025</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>AUSTON MATTHEWS</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>MATTHEW KNIES</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6381,6 +6381,38 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>ANDERS LEE</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>BO HORVAT</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>KYLE PALMIERI</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6413,6 +6413,94 @@
         </is>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>02:00 PM</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>SAM BENNETT</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>SAM REINHART</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>PIUS SUTER</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>BROCK BOESER</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>JAKE DEBRUSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>BOBBY BRINK</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>TYSON FOERSTER</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F203"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6501,6 +6501,130 @@
       </c>
       <c r="F203" t="inlineStr"/>
     </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>03:00 PM</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>JASON ROBERTSON</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>MIKKO RANTANEN</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>ROOPE HINTZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>SEAN MONAHAN</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>KIRILL MARCHENKO</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>KENT JOHNSON</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>05:30 PM</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>ALEX DEBRINCAT</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>DYLAN LARKIN</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>PATRICK KANE</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>04/06/2025</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>LUKE EVANGELISTA</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RYAN O'REILLY</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6625,6 +6625,34 @@
       </c>
       <c r="F207" t="inlineStr"/>
     </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>RYAN NUGENT-HOPKINS</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>VIKTOR ARVIDSSON</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6653,6 +6653,70 @@
       </c>
       <c r="F208" t="inlineStr"/>
     </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>04/08/2025</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>PATRICK KANE</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>DYLAN LARKIN</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>ALEX DEBRINCAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>04/08/2025</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>MATTHEW KNIES</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>AUSTON MATTHEWS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6717,6 +6717,62 @@
         </is>
       </c>
     </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>04/09/2025</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>WILL SMITH</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>MACKLIN CELEBRINI</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>04/09/2025</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>NAZEM KADRI</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>JONATHAN HUBERDEAU</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6773,6 +6773,70 @@
       </c>
       <c r="F212" t="inlineStr"/>
     </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>PATRICK KANE</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>DYLAN LARKIN</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>ALEX DEBRINCAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>04/10/2025</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>ADRIAN KEMPE</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>ANDREI KUZMENKO</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>ANZE KOPITAR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:F217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6837,6 +6837,94 @@
         </is>
       </c>
     </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>NICK SUZUKI</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>COLE CAUFIELD</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>JURAJ SLAFKOVSKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>TIM STÜTZLE</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>DRAKE BATHERSON</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>JONATHAN HUBERDEAU</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>NAZEM KADRI</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6925,6 +6925,66 @@
       </c>
       <c r="F217" t="inlineStr"/>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>04/12/2025</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>MATTHEW KNIES</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>AUSTON MATTHEWS</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>MITCH MARNER</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>04/12/2025</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>CONOR GARLAND</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>PIUS SUTER</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6985,6 +6985,62 @@
       </c>
       <c r="F219" t="inlineStr"/>
     </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>04/13/2025</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>BOBBY BRINK</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>TYSON FOERSTER</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>04/13/2025</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>BROCK NELSON</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>VALERI NICHUSHKIN</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7041,6 +7041,34 @@
       </c>
       <c r="F221" t="inlineStr"/>
     </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>04/14/2025</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>VINCENT TROCHECK</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>ARTEMI PANARIN</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7069,6 +7069,94 @@
       </c>
       <c r="F222" t="inlineStr"/>
     </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>04/15/2025</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Florida Panthers</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>NIKITA KUCHEROV</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>BRAYDEN POINT</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>04/15/2025</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Minnesota Wild</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>LEO CARLSSON</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>CUTTER GAUTHIER</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>04/15/2025</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>KIRILL KAPRIZOV</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>MATT BOLDY</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>JOEL ERIKSSON EK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7157,6 +7157,70 @@
         </is>
       </c>
     </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>04/16/2025</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Montreal Canadiens</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>JACKSON BLAKE</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>SETH JARVIS</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>SEBASTIAN AHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>04/16/2025</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Anaheim Ducks</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>MARK SCHEIFELE</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>ALEX IAFALLO</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>KYLE CONNOR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F227"/>
+  <dimension ref="A1:F228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7221,6 +7221,34 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>04/17/2025</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Ottawa Senators</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>ANDREI SVECHNIKOV</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>TAYLOR HALL</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/filtered_schedule.xlsx
+++ b/filtered_schedule.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,32 +422,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Team</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Player1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Player2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Player3</t>
         </is>
